--- a/biology/Zoologie/Gnaphosa/Gnaphosa.xlsx
+++ b/biology/Zoologie/Gnaphosa/Gnaphosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gnaphosa est un genre d'araignées aranéomorphes de la famille des Gnaphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gnaphosa est un genre d'araignées aranéomorphes de la famille des Gnaphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Nord, en Asie, en Europe, en Afrique du Nord, en Amérique centrale et aux Antilles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Nord, en Asie, en Europe, en Afrique du Nord, en Amérique centrale et aux Antilles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 11/04/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 11/04/2024) :
 Gnaphosa aborigena Tystshenko, 1965
 Gnaphosa akagiensis Hayashi, 1994
 Gnaphosa aksuensis Fomichev, 2019
@@ -695,7 +711,7 @@
 Gnaphosa zhaoi Ovtsharenko, Platnick &amp; Song, 1992
 Gnaphosa zonsteini Ovtsharenko, Platnick &amp; Song, 1992
 Gnaphosa zyuzini Ovtsharenko, Platnick &amp; Song, 1992
-Selon World Spider Catalog (version 23.5, 2023)[2] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Gnaphosa affinis (C. L. Koch &amp; Berendt, 1854)
 † Gnaphosa ambigua (C. L. Koch &amp; Berendt, 1854)
 † Gnaphosa liaoningensis Chang, 2004</t>
@@ -726,12 +742,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Latreille en 1804.
-Drassus[3] et Pythonissa[4] ont été placés en synonymie par Simon en 1893[5].
-Cylphosa[6] a été placé en synonymie par Ubick et Roth en 1973[7].
-Pterochroa[8] a été placé en synonymie par Murphy en 2007[9].
+Drassus et Pythonissa ont été placés en synonymie par Simon en 1893.
+Cylphosa a été placé en synonymie par Ubick et Roth en 1973.
+Pterochroa a été placé en synonymie par Murphy en 2007.
 </t>
         </is>
       </c>
@@ -760,7 +778,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Latreille, 1804 : « Tableau methodique des Insectes. » Nouveau Dictionnaire d'Histoire Naturelle, Paris, vol. 24, p. 129-295.</t>
         </is>
